--- a/hw11.xlsx
+++ b/hw11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\GR6250-2019\hw10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\GR6250-2019\hw11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51498D-BCC7-41D9-8260-F34B9FE429E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4963F1-CB6C-47CB-9877-D913FBC0D991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{000E4CA8-DEE4-4954-8287-48A9D77F9308}"/>
+    <workbookView xWindow="11415" yWindow="3780" windowWidth="15075" windowHeight="8535" xr2:uid="{000E4CA8-DEE4-4954-8287-48A9D77F9308}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>u</t>
   </si>
@@ -88,17 +88,35 @@
     <t>phi</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>monte</t>
+  </si>
+  <si>
+    <t>par coupon</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>payoff</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +132,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +160,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,12 +189,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -165,8 +220,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -480,35 +542,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5DED03-26E6-446D-AFDB-196685F844EA}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">_xll.MONTE.TABLE(I17:I22,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -528,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -542,14 +606,8 @@
         <f t="array" aca="1" ref="E6:E10" ca="1">_xll.XLL.LMM.TO_FUTURES(t, f, sigma)</f>
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -563,24 +621,11 @@
         <f ca="1"/>
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" aca="1" ref="F7:F10" ca="1">_xll.XLL.LMM.ADVANCE(u, t, f, sigma, alpha)</f>
-        <v>1.0689243775974877E-2</v>
-      </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7:G10">_xll.XLL.SKIP(u, t)-u</f>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1.06E-2</v>
-      </c>
-      <c r="J7" s="3" cm="1">
-        <f t="array" aca="1" ref="J7" ca="1">_xll.MONTE.MEAN(F7)</f>
-        <v>1.0599419150881141E-2</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -594,22 +639,20 @@
         <f ca="1"/>
         <v>1.18E-2</v>
       </c>
-      <c r="F8">
-        <f ca="1"/>
-        <v>1.1117547064284135E-2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1.0999999999999999E-2</v>
+      <c r="F8" cm="1">
+        <f t="array" aca="1" ref="F8:F10" ca="1">_xll.XLL.LMM.ADVANCE(u, t, f, sigma, alpha)</f>
+        <v>1.1360351131954256E-2</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8:G10">_xll.XLL.SKIP(u, t)-u</f>
+        <v>1</v>
       </c>
       <c r="J8" s="3" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">_xll.MONTE.MEAN(F8)</f>
-        <v>1.0999378686978829E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -625,20 +668,17 @@
       </c>
       <c r="F9">
         <f ca="1"/>
-        <v>1.1552599484280491E-2</v>
+        <v>1.2131918215406457E-2</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1.4E-2</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">_xll.MONTE.MEAN(F9)</f>
-        <v>1.1399326447727776E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -654,17 +694,185 @@
       </c>
       <c r="F10">
         <f ca="1"/>
-        <v>1.1995655104975552E-2</v>
+        <v>1.2895361608416429E-2</v>
       </c>
       <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>1.18E-2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">_xll.MONTE.MEAN(F10)</f>
-        <v>1.1799266286597372E-2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="3" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">_xll.XLL.LMM.PAR_COUPON(_xlfn.ANCHORARRAY(G8), J8:J11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <f ca="1">MAX(J12-J13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">_xll.MONTE.MEAN(J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="array" aca="1" ref="J17:L17" ca="1">_xll.MONTE.WHEN(alpha=I17,_xll.MONTE.STDEV($J$14))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="array" aca="1" ref="J18:L18" ca="1">_xll.MONTE.WHEN(alpha=I18,_xll.MONTE.STDEV($J$14))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <f ca="1">$J$17-J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="array" aca="1" ref="J19:L19" ca="1">_xll.MONTE.WHEN(alpha=I19,_xll.MONTE.STDEV($J$14))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f ca="1">$J$17-J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="array" aca="1" ref="J20:L20" ca="1">_xll.MONTE.WHEN(alpha=I20,_xll.MONTE.STDEV($J$14))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <f ca="1">$J$17-J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="array" aca="1" ref="J21:L21" ca="1">_xll.MONTE.WHEN(alpha=I21,_xll.MONTE.STDEV($J$14))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f ca="1">$J$17-J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="array" aca="1" ref="J22:L22" ca="1">_xll.MONTE.WHEN(alpha=I22,_xll.MONTE.STDEV($J$14))</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f ca="1">$J$17-J22</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
